--- a/白化病.xlsx
+++ b/白化病.xlsx
@@ -4,27 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28620" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>基因</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
     <t>TYR</t>
   </si>
   <si>
@@ -164,6 +161,21 @@
   </si>
   <si>
     <t>PRDM16</t>
+  </si>
+  <si>
+    <t>FGF3</t>
+  </si>
+  <si>
+    <t>OASD</t>
+  </si>
+  <si>
+    <t>ADFN</t>
+  </si>
+  <si>
+    <t>SCAR2</t>
+  </si>
+  <si>
+    <t>ATP6V1B2</t>
   </si>
 </sst>
 </file>
@@ -171,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -195,27 +207,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,13 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -303,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -351,6 +342,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +363,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,96 +501,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,36 +513,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,12 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,10 +662,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +674,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -817,10 +815,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,10 +899,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="383838"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F9F9F9"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1154,405 +1152,283 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:2">
+    <row r="1" ht="15" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>4</v>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B44">
-    <sortCondition ref="B2"/>
-  </sortState>
   <conditionalFormatting sqref="A45:A48">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
